--- a/tests/rtd/RtdTest.xlsx
+++ b/tests/rtd/RtdTest.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\dev\xloil\tests\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Steven\dev\xloil\tests\rtd\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:40001_{88253639-5B04-4237-A42D-D59AD3B8D612}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49E890F4-B7B5-4B22-BA91-CACCB4191FEB}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="948" yWindow="-108" windowWidth="22200" windowHeight="13176"/>
+    <workbookView xWindow="948" yWindow="-108" windowWidth="22200" windowHeight="13176" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="6">
   <si>
     <t>X</t>
   </si>
@@ -44,11 +44,17 @@
   <si>
     <t>Counter</t>
   </si>
+  <si>
+    <t>Skip</t>
+  </si>
+  <si>
+    <t>Skip+1</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -126,6 +132,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/volatileDependencies.xml><?xml version="1.0" encoding="utf-8"?>
+<volTypes xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <volType type="realTimeData">
+    <main first="xloil.rtd.44671cf2.a667.467e.ad59.b8957fa6f64f">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>X</stp>
+        <tr r="C7" s="1"/>
+        <tr r="C6" s="1"/>
+        <tr r="C5" s="1"/>
+      </tp>
+    </main>
+    <main first="xloil.rtd.01d1e87e.6461.41f1.aebf.523bba6d33c2">
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>{9CC46D94-FCF2-4C86-BBF6-7AB4952DAB4F}</stp>
+        <tr r="F13" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>{B0228C62-2874-44FD-AC8F-1200E22DC219}</stp>
+        <tr r="F13" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>{CE15D0C5-04FA-4AAC-A8A3-40211E8D5C9E}</stp>
+        <tr r="F8" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>{7957877F-466B-4F54-861F-06F72EDB7231}</stp>
+        <tr r="F5" s="1"/>
+      </tp>
+      <tp>
+        <v>0</v>
+        <stp/>
+        <stp>{2970BFAD-2392-4935-A8A5-F90ADB66637A}</stp>
+        <tr r="F13" s="1"/>
+      </tp>
+    </main>
+  </volType>
+</volTypes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -424,11 +479,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="B3:E8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <sheetPr codeName="Sheet1"/>
+  <dimension ref="B3:F13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -436,7 +492,7 @@
     <col min="6" max="6" width="14.88671875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="3" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B3" s="5" t="s">
         <v>0</v>
       </c>
@@ -445,7 +501,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="4" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B4" t="s">
         <v>1</v>
       </c>
@@ -454,51 +510,78 @@
       </c>
       <c r="D4" s="3"/>
     </row>
-    <row r="5" spans="2:5" x14ac:dyDescent="0.3">
+    <row r="5" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B5" s="2">
         <v>1</v>
       </c>
-      <c r="C5" s="4" t="e">
-        <f t="array" aca="1" ref="C5:C7" ca="1">_xll.xloRtdGet(B3)</f>
-        <v>#VALUE!</v>
+      <c r="C5" s="4">
+        <f t="array" ref="C5:C7">_xll.xloRtdGet(B3)</f>
+        <v>1</v>
       </c>
       <c r="D5" s="3"/>
-      <c r="E5" t="e">
-        <f ca="1">_xll.xloRtdCounter()</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="6" spans="2:5" x14ac:dyDescent="0.3">
+      <c r="E5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F5" s="4">
+        <f>_xll.xloRtdCounter()</f>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="6" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B6" s="2">
         <v>2</v>
       </c>
-      <c r="C6" s="4" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
+      <c r="C6" s="4">
+        <v>2</v>
       </c>
       <c r="D6" s="3"/>
-      <c r="E6" t="e">
-        <f ca="1">_xll.xloRtdCounter()+1</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="7" spans="2:5" x14ac:dyDescent="0.3">
+    </row>
+    <row r="7" spans="2:6" x14ac:dyDescent="0.3">
       <c r="B7" s="2">
         <v>3</v>
       </c>
-      <c r="C7" s="4" t="e">
-        <f ca="1"/>
-        <v>#VALUE!</v>
-      </c>
-      <c r="E7" t="e">
-        <f ca="1">_xll.xloRtdCounter()</f>
-        <v>#VALUE!</v>
-      </c>
-    </row>
-    <row r="8" spans="2:5" x14ac:dyDescent="0.3">
-      <c r="B8" s="1" t="e">
-        <f ca="1">_xll.xloRtdSet(B3,B5:B7)</f>
-        <v>#VALUE!</v>
+      <c r="C7" s="4">
+        <v>3</v>
+      </c>
+      <c r="E7" t="s">
+        <v>4</v>
+      </c>
+      <c r="F7" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="B8" s="1" t="str">
+        <f>_xll.xloRtdSet(B3,B5:B7)</f>
+        <v>X</v>
+      </c>
+      <c r="F8" s="4">
+        <f>_xll.xloRtdCounter(F7)</f>
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="E10" t="s">
+        <v>4</v>
+      </c>
+      <c r="F10" s="2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F11" s="2">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F12" s="2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="2:6" x14ac:dyDescent="0.3">
+      <c r="F13" s="4">
+        <f>_xll.xloRtdCounter(F10)+_xll.xloRtdCounter(F11)+_xll.xloRtdCounter(F12)</f>
+        <v>266</v>
       </c>
     </row>
   </sheetData>
